--- a/ir_sensorWithfilter.xlsx
+++ b/ir_sensorWithfilter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Documents/UniversityOfBristol/Robotics/CoverageChallenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bei/Documents/GitHub/CoverageChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4677F1E-57D8-9F4B-AE2F-05E84A481E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F391B01-435C-AA49-BA55-2F526920DA98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="460" windowWidth="21360" windowHeight="16240" xr2:uid="{5E522563-FA9C-044B-9875-72CEA9E88D2E}"/>
   </bookViews>
@@ -134,7 +134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -237,7 +237,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -531,7 +531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515455584"/>
@@ -593,7 +593,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515391392"/>
@@ -641,7 +641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -692,7 +692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -785,7 +785,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1025,7 +1025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2068753663"/>
@@ -1087,7 +1087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2068652095"/>
@@ -1135,7 +1135,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1186,7 +1186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1279,7 +1279,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1519,7 +1519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1015567328"/>
@@ -1581,7 +1581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920163856"/>
@@ -1629,7 +1629,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3348,16 +3348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>301151</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8074</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>180265</xdr:rowOff>
+      <xdr:rowOff>115137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511171</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218094</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161215</xdr:rowOff>
+      <xdr:rowOff>96087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3384,16 +3384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640211</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144194</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3720,7 +3720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DFAC3-2483-B245-AF55-9EDC331D03A3}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N26" zoomScale="336" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
